--- a/altre_fonti_storiche/1554-1599_Catalogo_dei_morti_di_Ancona/dati excel/Catalogo_dei_morti_Ancona_1590-1599.xlsx
+++ b/altre_fonti_storiche/1554-1599_Catalogo_dei_morti_di_Ancona/dati excel/Catalogo_dei_morti_Ancona_1590-1599.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Le origini dei Romagnoli frentani\altre_fonti_storiche\1554-1599_Catalogo_dei_morti_di_Ancona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Romagnoli Frenteni (Libro e Repository)\REPOSITORY\altre_fonti_storiche\1554-1599_Catalogo_dei_morti_di_Ancona\dati excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01984A5-2259-4797-98AD-DA01576E0DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFF857-91C7-4D9B-BF84-1B3DE999E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B2CF092-1473-4CC5-8411-DD87937D84B5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="341">
   <si>
     <t>Lettera</t>
   </si>
@@ -243,21 +243,6 @@
     <t>Catt.na d'Andrea</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Catt.na </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lauadara</t>
-    </r>
-  </si>
-  <si>
     <t>Catt.na di Pasquino</t>
   </si>
   <si>
@@ -327,21 +312,6 @@
     <t>Fiore di Giovanni</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Franco di Marino </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cecero</t>
-    </r>
-  </si>
-  <si>
     <t>Felice</t>
   </si>
   <si>
@@ -408,63 +378,6 @@
     <t>Giovanni Maria del fu Giovanni Francesco</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Parrocchia di S. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zac.a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Parrocchia di S.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zac.a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Giovanni Battista figlio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nate</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: di Pietro</t>
-    </r>
-  </si>
-  <si>
     <t>Giovanna di Catt.na</t>
   </si>
   <si>
@@ -498,36 +411,6 @@
     <t>Antonia maggiore di Alessandrino</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Antonia maggiore di </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pardenio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Aurelia maggiore d'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alaisi</t>
-    </r>
-  </si>
-  <si>
     <t>Agata maggiore de fu Martino</t>
   </si>
   <si>
@@ -555,51 +438,12 @@
     <t>Luigi</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lucia maggiore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:gia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di Silvestro</t>
-    </r>
-  </si>
-  <si>
     <t>Lucia maggiore del fu Baldo</t>
   </si>
   <si>
     <t>Lucrezia di Domenico</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lucia del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sergente</t>
-    </r>
-  </si>
-  <si>
     <t>Lucia maggiore del fu Tomaso</t>
   </si>
   <si>
@@ -621,31 +465,6 @@
     <t>Margarita di Doratea</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Maria del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gia:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Vincenzo </t>
-    </r>
-  </si>
-  <si>
     <t>Maria di Gabriele</t>
   </si>
   <si>
@@ -658,21 +477,6 @@
     <t>Margarita</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Madalena di </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Zac.a </t>
-    </r>
-  </si>
-  <si>
     <t>Madalena di Lorenzo</t>
   </si>
   <si>
@@ -1102,42 +906,12 @@
     <t>Simona</t>
   </si>
   <si>
-    <r>
-      <t>Santa D'Ancona</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> serva di G. Bonarelli</t>
-    </r>
-  </si>
-  <si>
     <t>Tomaso della Serra</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Vincenzo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uigraroli</t>
-    </r>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -1249,36 +1023,50 @@
     <t>Data di morte</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Madalena maggiore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gia:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di Bedino</t>
-    </r>
+    <t>Giovanni Battista figlio nate: di Pietro</t>
+  </si>
+  <si>
+    <t>Aurelia maggiore d'Alaisi</t>
+  </si>
+  <si>
+    <t>Parrocchia di S. Zac.a</t>
+  </si>
+  <si>
+    <t>Madalena maggiore gia: di Bedino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria del gia: Vincenzo </t>
+  </si>
+  <si>
+    <t>Lucia maggiore :gia di Silvestro</t>
+  </si>
+  <si>
+    <t>Antonia maggiore di Pardenio</t>
+  </si>
+  <si>
+    <t>Catt.na Lauadara</t>
+  </si>
+  <si>
+    <t>Lucia del Sergente</t>
+  </si>
+  <si>
+    <t>Vincenzo uigraroli</t>
+  </si>
+  <si>
+    <t>Franco di Marino Cecero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madalena di Zac.a </t>
+  </si>
+  <si>
+    <t>Santa D'Ancona serva di G. Bonarelli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,27 +1078,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1351,14 +1118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1676,7 +1441,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1724,10 +1489,10 @@
         <v>184</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1750,10 +1515,10 @@
         <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1776,10 +1541,10 @@
         <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1802,7 +1567,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>44</v>
@@ -1828,10 +1593,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1840,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1854,13 +1619,13 @@
         <v>279</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>30</v>
@@ -1880,7 +1645,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>65</v>
@@ -1906,10 +1671,10 @@
         <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1932,10 +1697,10 @@
         <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1946,7 +1711,7 @@
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1958,12 +1723,12 @@
         <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1984,13 +1749,13 @@
         <v>313</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -2010,10 +1775,10 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -2022,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>42</v>
@@ -2036,10 +1801,10 @@
         <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2062,10 +1827,10 @@
         <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2074,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2088,10 +1853,10 @@
         <v>302</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2114,10 +1879,10 @@
         <v>302</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2140,10 +1905,10 @@
         <v>212</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2152,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
@@ -2166,10 +1931,10 @@
         <v>213</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
@@ -2180,7 +1945,7 @@
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2192,10 +1957,10 @@
         <v>242</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2218,19 +1983,19 @@
         <v>304</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -2244,10 +2009,10 @@
         <v>245</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
@@ -2256,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>42</v>
@@ -2269,11 +2034,11 @@
       <c r="B23" s="3">
         <v>131</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>214</v>
+      <c r="C23" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2296,7 +2061,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
@@ -2308,7 +2073,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -2322,10 +2087,10 @@
         <v>108</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2334,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
@@ -2348,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>61</v>
@@ -2362,7 +2127,7 @@
       <c r="G26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2374,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>60</v>
@@ -2386,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -2400,10 +2165,10 @@
         <v>300</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
@@ -2420,16 +2185,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B29" s="3">
         <v>262</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
@@ -2438,7 +2203,7 @@
         <v>30</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2452,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>41</v>
@@ -2464,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>34</v>
@@ -2478,10 +2243,10 @@
         <v>142</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
@@ -2504,7 +2269,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>49</v>
@@ -2530,10 +2295,10 @@
         <v>277</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
@@ -2556,10 +2321,10 @@
         <v>233</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
@@ -2568,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -2582,10 +2347,10 @@
         <v>204</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
@@ -2608,7 +2373,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>62</v>
@@ -2620,9 +2385,9 @@
         <v>25</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2634,10 +2399,10 @@
         <v>144</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -2660,10 +2425,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
@@ -2672,7 +2437,7 @@
         <v>25</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>12</v>
@@ -2686,7 +2451,7 @@
         <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>63</v>
@@ -2712,7 +2477,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>64</v>
@@ -2738,10 +2503,10 @@
         <v>204</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -2750,9 +2515,9 @@
         <v>25</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2764,7 +2529,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>54</v>
@@ -2776,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2790,7 +2555,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>53</v>
@@ -2816,7 +2581,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>52</v>
@@ -2842,10 +2607,10 @@
         <v>278</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
@@ -2868,10 +2633,10 @@
         <v>146</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
@@ -2882,7 +2647,7 @@
       <c r="G46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2894,10 +2659,10 @@
         <v>301</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
@@ -2920,10 +2685,10 @@
         <v>146</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>9</v>
@@ -2946,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
@@ -2958,7 +2723,7 @@
         <v>30</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2972,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
@@ -2998,10 +2763,10 @@
         <v>205</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>9</v>
@@ -3010,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>8</v>
@@ -3024,10 +2789,10 @@
         <v>114</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
@@ -3036,9 +2801,9 @@
         <v>30</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3050,10 +2815,10 @@
         <v>235</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
@@ -3062,7 +2827,7 @@
         <v>25</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -3076,7 +2841,7 @@
         <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>19</v>
@@ -3090,7 +2855,7 @@
       <c r="G54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3102,10 +2867,10 @@
         <v>235</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
@@ -3128,10 +2893,10 @@
         <v>279</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
@@ -3154,10 +2919,10 @@
         <v>206</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>9</v>
@@ -3180,10 +2945,10 @@
         <v>235</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
@@ -3194,7 +2959,7 @@
       <c r="G58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3206,10 +2971,10 @@
         <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
@@ -3221,7 +2986,7 @@
         <v>21</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3232,10 +2997,10 @@
         <v>279</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>278</v>
+        <v>301</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
@@ -3258,10 +3023,10 @@
         <v>279</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -3284,10 +3049,10 @@
         <v>206</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>9</v>
@@ -3299,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3310,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>59</v>
@@ -3322,7 +3087,7 @@
         <v>25</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>8</v>
@@ -3336,10 +3101,10 @@
         <v>206</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>9</v>
@@ -3348,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>8</v>
@@ -3362,10 +3127,10 @@
         <v>149</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>9</v>
@@ -3388,10 +3153,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
@@ -3414,19 +3179,19 @@
         <v>66</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>66</v>
@@ -3440,7 +3205,7 @@
         <v>116</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>26</v>
@@ -3452,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>42</v>
@@ -3466,10 +3231,10 @@
         <v>150</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -3478,9 +3243,9 @@
         <v>25</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3492,10 +3257,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
@@ -3518,12 +3283,12 @@
         <v>40</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -3544,10 +3309,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -3556,10 +3321,10 @@
         <v>25</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3570,10 +3335,10 @@
         <v>151</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
@@ -3596,10 +3361,10 @@
         <v>280</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>9</v>
@@ -3622,10 +3387,10 @@
         <v>68</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -3648,12 +3413,12 @@
         <v>68</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -3663,7 +3428,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3674,10 +3439,10 @@
         <v>117</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>9</v>
@@ -3700,10 +3465,10 @@
         <v>208</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>9</v>
@@ -3712,10 +3477,10 @@
         <v>25</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3726,10 +3491,10 @@
         <v>238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
@@ -3752,10 +3517,10 @@
         <v>208</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>9</v>
@@ -3766,7 +3531,7 @@
       <c r="G80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3778,10 +3543,10 @@
         <v>189</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>9</v>
@@ -3790,7 +3555,7 @@
         <v>25</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>12</v>
@@ -3804,10 +3569,10 @@
         <v>296</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>9</v>
@@ -3830,10 +3595,10 @@
         <v>189</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>9</v>
@@ -3842,9 +3607,9 @@
         <v>25</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H83" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3856,10 +3621,10 @@
         <v>153</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>9</v>
@@ -3882,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>58</v>
@@ -3894,10 +3659,10 @@
         <v>30</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3908,12 +3673,12 @@
         <v>69</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -3934,15 +3699,15 @@
         <v>41</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -3960,10 +3725,10 @@
         <v>119</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>9</v>
@@ -3986,10 +3751,10 @@
         <v>71</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>9</v>
@@ -3998,10 +3763,10 @@
         <v>25</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4012,10 +3777,10 @@
         <v>282</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>9</v>
@@ -4024,7 +3789,7 @@
         <v>25</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>42</v>
@@ -4038,12 +3803,12 @@
         <v>156</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -4064,10 +3829,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
@@ -4076,7 +3841,7 @@
         <v>25</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>10</v>
@@ -4090,10 +3855,10 @@
         <v>241</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>9</v>
@@ -4110,16 +3875,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B94" s="3">
         <v>321</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>9</v>
@@ -4142,10 +3907,10 @@
         <v>156</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>9</v>
@@ -4154,7 +3919,7 @@
         <v>30</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>42</v>
@@ -4168,10 +3933,10 @@
         <v>73</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>9</v>
@@ -4194,7 +3959,7 @@
         <v>121</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>26</v>
@@ -4206,7 +3971,7 @@
         <v>25</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>42</v>
@@ -4220,10 +3985,10 @@
         <v>191</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>9</v>
@@ -4232,7 +3997,7 @@
         <v>25</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>12</v>
@@ -4246,19 +4011,19 @@
         <v>121</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>8</v>
@@ -4272,10 +4037,10 @@
         <v>74</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>9</v>
@@ -4298,10 +4063,10 @@
         <v>302</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>9</v>
@@ -4324,10 +4089,10 @@
         <v>303</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>9</v>
@@ -4350,10 +4115,10 @@
         <v>303</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>9</v>
@@ -4362,9 +4127,9 @@
         <v>25</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H103" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4376,10 +4141,10 @@
         <v>160</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>110</v>
+        <v>219</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>9</v>
@@ -4388,7 +4153,7 @@
         <v>30</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>8</v>
@@ -4402,10 +4167,10 @@
         <v>285</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>9</v>
@@ -4428,10 +4193,10 @@
         <v>161</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>9</v>
@@ -4448,16 +4213,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B107" s="3">
         <v>328</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>305</v>
+        <v>326</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>9</v>
@@ -4480,10 +4245,10 @@
         <v>76</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>9</v>
@@ -4492,7 +4257,7 @@
         <v>25</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>10</v>
@@ -4506,7 +4271,7 @@
         <v>45</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>47</v>
@@ -4532,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>51</v>
@@ -4558,10 +4323,10 @@
         <v>285</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>9</v>
@@ -4570,7 +4335,7 @@
         <v>25</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>42</v>
@@ -4584,10 +4349,10 @@
         <v>161</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>112</v>
+        <v>221</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>9</v>
@@ -4596,7 +4361,7 @@
         <v>25</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>8</v>
@@ -4610,19 +4375,19 @@
         <v>126</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E113" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>8</v>
@@ -4636,10 +4401,10 @@
         <v>162</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>9</v>
@@ -4662,10 +4427,10 @@
         <v>162</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>9</v>
@@ -4674,9 +4439,9 @@
         <v>30</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H115" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4688,10 +4453,10 @@
         <v>305</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>9</v>
@@ -4700,7 +4465,7 @@
         <v>25</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>8</v>
@@ -4714,10 +4479,10 @@
         <v>128</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>9</v>
@@ -4740,10 +4505,10 @@
         <v>128</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>9</v>
@@ -4752,7 +4517,7 @@
         <v>30</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>10</v>
@@ -4766,10 +4531,10 @@
         <v>79</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>9</v>
@@ -4792,7 +4557,7 @@
         <v>249</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>31</v>
@@ -4804,7 +4569,7 @@
         <v>25</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>8</v>
@@ -4818,10 +4583,10 @@
         <v>288</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>9</v>
@@ -4830,7 +4595,7 @@
         <v>25</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>42</v>
@@ -4844,22 +4609,22 @@
         <v>166</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E122" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4870,10 +4635,10 @@
         <v>288</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>9</v>
@@ -4882,7 +4647,7 @@
         <v>30</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>8</v>
@@ -4896,10 +4661,10 @@
         <v>272</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>9</v>
@@ -4908,10 +4673,10 @@
         <v>25</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4922,10 +4687,10 @@
         <v>166</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>9</v>
@@ -4936,7 +4701,7 @@
       <c r="G125" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4948,10 +4713,10 @@
         <v>167</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>9</v>
@@ -4960,7 +4725,7 @@
         <v>25</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>10</v>
@@ -4974,12 +4739,12 @@
         <v>194</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E127" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -5000,10 +4765,10 @@
         <v>249</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>156</v>
+        <v>339</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>9</v>
@@ -5014,7 +4779,7 @@
       <c r="G128" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H128" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5026,10 +4791,10 @@
         <v>81</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>9</v>
@@ -5038,7 +4803,7 @@
         <v>25</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>42</v>
@@ -5052,12 +4817,12 @@
         <v>167</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E130" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -5078,10 +4843,10 @@
         <v>249</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>9</v>
@@ -5092,7 +4857,7 @@
       <c r="G131" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5104,10 +4869,10 @@
         <v>289</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>9</v>
@@ -5130,10 +4895,10 @@
         <v>289</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>9</v>
@@ -5156,10 +4921,10 @@
         <v>131</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>9</v>
@@ -5168,7 +4933,7 @@
         <v>30</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>42</v>
@@ -5182,10 +4947,10 @@
         <v>307</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>9</v>
@@ -5194,10 +4959,10 @@
         <v>25</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5208,10 +4973,10 @@
         <v>26</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>9</v>
@@ -5220,7 +4985,7 @@
         <v>25</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>42</v>
@@ -5234,10 +4999,10 @@
         <v>84</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>9</v>
@@ -5260,9 +5025,9 @@
         <v>27</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D138" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -5286,10 +5051,10 @@
         <v>101</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>9</v>
@@ -5312,19 +5077,19 @@
         <v>220</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E140" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>22</v>
@@ -5334,14 +5099,14 @@
       <c r="A141" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <v>252</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>9</v>
@@ -5350,9 +5115,9 @@
         <v>25</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H141" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5364,7 +5129,7 @@
         <v>50</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>50</v>
@@ -5376,7 +5141,7 @@
         <v>30</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>8</v>
@@ -5390,10 +5155,10 @@
         <v>86</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>9</v>
@@ -5416,10 +5181,10 @@
         <v>253</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>9</v>
@@ -5442,10 +5207,10 @@
         <v>307</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>9</v>
@@ -5468,10 +5233,10 @@
         <v>221</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>9</v>
@@ -5494,10 +5259,10 @@
         <v>136</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>9</v>
@@ -5520,10 +5285,10 @@
         <v>102</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>9</v>
@@ -5532,10 +5297,10 @@
         <v>30</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5546,10 +5311,10 @@
         <v>90</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>9</v>
@@ -5572,7 +5337,7 @@
         <v>32</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>55</v>
@@ -5584,7 +5349,7 @@
         <v>25</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>42</v>
@@ -5592,16 +5357,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B151" s="3">
         <v>268</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>9</v>
